--- a/danh_sach_ck.xlsx
+++ b/danh_sach_ck.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>MaDon</t>
   </si>
@@ -31,9 +31,6 @@
     <t>NoiDung</t>
   </si>
   <si>
-    <t>#XBQ6 #16.01 mã phiếu DO-107779-N02</t>
-  </si>
-  <si>
     <t>Diep Hong Nhi</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>#XBQ6 #16.01 mã phiếu DO-107817-N01</t>
-  </si>
-  <si>
     <t>Lam Quang Huy</t>
   </si>
   <si>
@@ -56,18 +50,6 @@
   </si>
   <si>
     <t>02493583701</t>
-  </si>
-  <si>
-    <t>#XBQ6 #16.01 mã phiếu DO-107684-N01</t>
-  </si>
-  <si>
-    <t>#XBQ6 #16.01 mã phiếu DO-107779-N01</t>
-  </si>
-  <si>
-    <t>#XBQ6 #16.01 mã phiếu DO-107782-N01</t>
-  </si>
-  <si>
-    <t>#XBQ6 #16.01 mã phiếu DO-107779-N03</t>
   </si>
 </sst>
 </file>
@@ -342,7 +324,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1494,7 +1476,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="42.7031" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1719" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
@@ -1523,124 +1505,68 @@
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="C2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="D2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="E2" s="7"/>
+      <c r="F2" t="s" s="8">
         <v>9</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2924500</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7">
-        <v>6750000</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7">
-        <v>13500000</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7">
-        <v>10012000</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7125000</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1205500</v>
-      </c>
-      <c r="F7" t="s" s="6">
-        <v>10</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="10"/>

--- a/danh_sach_ck.xlsx
+++ b/danh_sach_ck.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>MaDon</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>NoiDung</t>
+  </si>
+  <si>
+    <t>#XBQ6_#19.01_mã_phiếu_DO-107829-N01</t>
   </si>
   <si>
     <t>Diep Hong Nhi</t>
@@ -302,7 +305,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -324,13 +327,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1505,35 +1511,43 @@
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="A2" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="B2" t="s" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>200000</v>
+      </c>
       <c r="F2" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="2"/>
+      <c r="A3" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="B3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F3" t="s" s="8">
         <v>10</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" t="s" s="8">
-        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1541,7 +1555,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
@@ -1549,7 +1563,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -1557,7 +1571,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -1565,40 +1579,40 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
